--- a/VersionRecords/Version 5.0.0/定时器/定时器变更.xlsx
+++ b/VersionRecords/Version 5.0.0/定时器/定时器变更.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\doc\VersionRecords\Version Bill\定时器\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14070" tabRatio="185"/>
+    <workbookView windowWidth="28695" windowHeight="12990" tabRatio="185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +13,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$1:$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>定时器大类</t>
   </si>
@@ -52,6 +47,9 @@
     <t>使用与否</t>
   </si>
   <si>
+    <t>可否删除</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -76,149 +74,72 @@
     <t>上线版本</t>
   </si>
   <si>
-    <t>未上线</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>定时周期任务</t>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.CollectUserBehaviorRecordTask</t>
-  </si>
-  <si>
-    <t>bill</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>王辉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>王辉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>王辉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁冰秋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>已上线</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>CreateNormalBillBySignedOrderTask
+(mogoroom-tasktracker)</t>
   </si>
   <si>
     <t xml:space="preserve">
 账单推送&amp;账单提醒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+  </si>
+  <si>
+    <t>袁冰秋</t>
+  </si>
+  <si>
+    <t>已上线</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>（关闭）签约成功的签约单自动生成销售账单任务.去除账单推送功能，账单提醒功能由新的定时任务取代</t>
+  </si>
+  <si>
+    <t>CreateNormalBillBySignedOrderTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.CreateNormalBillBySignedOrderTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CreateNormalBillBySignedOrderTask"}</t>
+  </si>
+  <si>
+    <t>定时周期任务</t>
   </si>
   <si>
     <t>每日09:00:00执行</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日09:00:00执行</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateNormalBillBySignedOrderTask
-(mogoroom-tasktracker)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单提醒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>（新增）账单提醒，推送消息 租客&amp;房东&amp;房东子账号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>报错原因：错误数据导致，根据报错日志，修复数据，重新执行一次即可</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>可否删除</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>王辉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁冰秋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁冰秋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill(停用)</t>
+  </si>
+  <si>
+    <t>SendSaleBillMessageTask</t>
   </si>
   <si>
     <t>付款截止日及付款截止日三天前推送短信给租客</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>（关闭）签约成功的签约单自动生成销售账单任务.去除账单推送功能，账单提醒功能由新的定时任务取代</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>（关闭）付款截止日及付款截止日三天前推送短信给租客，账单提醒功能由新的定时任务取代</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>已上线</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendSaleBillMessageTask</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CreateNormalBillBySignedOrderTask"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>com.mogoroom.tasktracker.task.SendSaleBillMessageTask</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.SendSaleBillMessageTask"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时周期任务</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时周期任务</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>报错原因：错误数据导致，根据报错日志，修复数据，重新执行一次即可</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bill(停用)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bill(停用)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">MsgBillHintByOrderTask
 </t>
     </r>
@@ -227,35 +148,88 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(mogoda-tasktracker)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单提醒</t>
+  </si>
+  <si>
+    <t>未上线</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>（新增）账单提醒，推送消息 租客&amp;房东&amp;房东子账号</t>
   </si>
   <si>
     <t>MsgBillHintByOrderTask</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.CollectUserBehaviorRecordTask</t>
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgBillHintByOrderTask"}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.CreateNormalBillBySignedOrderTask</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateNormalBillBySignedOrderTask</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>ProcessAcctHistoryDataTask
+(mogoroom-tasktracker)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+账务旧数据处理</t>
+  </si>
+  <si>
+    <t>蒙先铭</t>
+  </si>
+  <si>
+    <t>沈铖</t>
+  </si>
+  <si>
+    <t>账务旧数据处理。功能点：
+1. 签约成功(包括补录租约成功/租约待确认、发起签约成功)的账单(包括租金账单、自定义账单）：置账单状态由未发送--&gt;已发送
+2. 针对所有签约成功的签约单下的预账单、全部生成正式账单、账单状态为未发送。
+3. 处理旧转客的押金。把押金明细生成押金账单、并线下支付该账单 
+参数：
+ @param mode 执行模式。逗号隔开的功能点编号， 例如mode=1,2
+ mode为空： 执行全部上述3个功能点。
+ mode包含1: 执行功能点1.
+ mode包含2: 执行功能点2.
+ mode包含3: 执行功能点3.</t>
+  </si>
+  <si>
+    <t>ProcessAcctHistoryDataTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.ProcessAcctHistoryDataTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.ProcessAcctHistoryDataTask", "mode":""}</t>
+  </si>
+  <si>
+    <t>一次性任务</t>
+  </si>
+  <si>
+    <t>只执行一次、用于新账务改造上线后的数据初始化</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,7 +242,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -276,7 +263,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -284,15 +270,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -300,26 +277,161 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,7 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,8 +450,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -414,141 +712,426 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
+      <font/>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -809,240 +1392,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="16.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9" style="3"/>
-    <col min="11" max="11" width="86.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="42.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="66" style="2" customWidth="1"/>
-    <col min="14" max="14" width="83.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="2" customWidth="1"/>
-    <col min="16" max="16" width="32.625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="44.375" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="42.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="16.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9" style="4"/>
+    <col min="11" max="11" width="86.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="42.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="66" style="3" customWidth="1"/>
+    <col min="14" max="14" width="83.75" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
+    <col min="16" max="16" width="32.625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="44.375" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="27.75" spans="1:18">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="45" customHeight="1" spans="1:18">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="45" customHeight="1" spans="1:18">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>16</v>
+      <c r="N3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="6" t="s">
+    <row r="4" ht="45" customHeight="1" spans="1:18">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="R4" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="133" customHeight="1" spans="1:18">
+      <c r="A5" s="7"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="14" t="s">
+      <c r="K5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="14" t="s">
+      <c r="M5" s="20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="10" t="s">
+      <c r="N5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="15" t="s">
+      <c r="O5" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="15" t="s">
+      <c r="P5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="Q5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:XFD4"/>
@@ -1050,8 +1682,8 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/VersionRecords/Version 5.0.0/定时器/定时器变更.xlsx
+++ b/VersionRecords/Version 5.0.0/定时器/定时器变更.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$1:$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$1:$5</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -192,16 +192,23 @@
     <t>沈铖</t>
   </si>
   <si>
-    <t>账务旧数据处理。功能点：
+    <t xml:space="preserve">账务旧数据处理。功能点：
 1. 签约成功(包括补录租约成功/租约待确认、发起签约成功)的账单(包括租金账单、自定义账单）：置账单状态由未发送--&gt;已发送
 2. 针对所有签约成功的签约单下的预账单、全部生成正式账单、账单状态为未发送。
 3. 处理旧转客的押金。把押金明细生成押金账单、并线下支付该账单 
+4. 把所有签约单的发送状态都置为已发送
+5. 把所有合同的发送状态都置为已发送
+可针对单个或多个签约单进行处理、这种情况需传入signedOrderIds参数。
 参数：
- @param mode 执行模式。逗号隔开的功能点编号， 例如mode=1,2
+@param mode 执行模式。逗号隔开的功能点编号， 例如mode=1,2
  mode为空： 执行全部上述3个功能点。
  mode包含1: 执行功能点1.
  mode包含2: 执行功能点2.
- mode包含3: 执行功能点3.</t>
+ mode包含3: 执行功能点3.
+ mode包含4: 执行功能点4.
+ mode包含5: 执行功能点5.
+@param signedOrderIds 要处理的单个或者多个签约单id。若不指定本参数、则处理全部签约单。多个签约单id用逗号隔开，例如signedOrderIds=1,2,3。
+</t>
   </si>
   <si>
     <t>ProcessAcctHistoryDataTask</t>
@@ -210,7 +217,7 @@
     <t>com.mogoroom.tasktracker.task.ProcessAcctHistoryDataTask</t>
   </si>
   <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.ProcessAcctHistoryDataTask", "mode":""}</t>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.ProcessAcctHistoryDataTask", "mode":"", "signedOrderIds":""}</t>
   </si>
   <si>
     <t>一次性任务</t>
@@ -229,7 +236,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,20 +246,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -281,9 +274,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,72 +363,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -414,24 +416,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,13 +438,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,19 +558,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,145 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,6 +723,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -795,194 +790,176 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -991,28 +968,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,31 +989,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1120,7 +1082,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1396,288 +1357,288 @@
   <sheetPr/>
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="11" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="16.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4"/>
-    <col min="11" max="11" width="86.75" style="3" customWidth="1"/>
-    <col min="12" max="12" width="42.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="66" style="3" customWidth="1"/>
-    <col min="14" max="14" width="83.75" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13" style="3" customWidth="1"/>
-    <col min="16" max="16" width="32.625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="44.375" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="11" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="16.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="86.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="42.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="66" style="2" customWidth="1"/>
+    <col min="14" max="14" width="83.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13" style="2" customWidth="1"/>
+    <col min="16" max="16" width="32.625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="44.375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27.75" spans="1:18">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:18">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:18">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" ht="45" customHeight="1" spans="1:18">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="18" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="133" customHeight="1" spans="1:18">
-      <c r="A5" s="7"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="9" t="s">
+    <row r="5" s="2" customFormat="1" ht="300" customHeight="1" spans="1:18">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="18" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="9"/>
+      <c r="R5" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFD4"/>
+  <autoFilter ref="A1:XFD5"/>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>

--- a/VersionRecords/Version 5.0.0/定时器/定时器变更.xlsx
+++ b/VersionRecords/Version 5.0.0/定时器/定时器变更.xlsx
@@ -207,7 +207,10 @@
  mode包含3: 执行功能点3.
  mode包含4: 执行功能点4.
  mode包含5: 执行功能点5.
-@param signedOrderIds 要处理的单个或者多个签约单id。若不指定本参数、则处理全部签约单。多个签约单id用逗号隔开，例如signedOrderIds=1,2,3。
+@param signedOrderIds 要处理的单个或者多个签约单id。
+1. signedOrderIds不指定或者为空: 处理全部签约单。
+2. signedOrderIds指定多个签约单id: 处理指定签约单id的数据。多个签约单id用逗号隔开，例如signedOrderIds=1,2,3。
+3. signedOrderIds指定多线程分批执行: signedOrderIds格式为:线程数+"p"。例如:signedOrderIds="10p", 指定10个线程跑。
 </t>
   </si>
   <si>
@@ -217,7 +220,7 @@
     <t>com.mogoroom.tasktracker.task.ProcessAcctHistoryDataTask</t>
   </si>
   <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.ProcessAcctHistoryDataTask", "mode":"", "signedOrderIds":""}</t>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.ProcessAcctHistoryDataTask", "mode":"", "signedOrderIds":"10p"}</t>
   </si>
   <si>
     <t>一次性任务</t>
@@ -231,10 +234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -274,6 +277,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -281,75 +344,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,22 +406,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,29 +419,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -438,25 +441,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,145 +615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,6 +696,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -723,54 +759,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -790,6 +778,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -798,10 +801,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,133 +813,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1357,8 +1360,8 @@
   <sheetPr/>
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1589,7 +1592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="300" customHeight="1" spans="1:18">
+    <row r="5" s="2" customFormat="1" ht="347" customHeight="1" spans="1:18">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">

--- a/VersionRecords/Version 5.0.0/定时器/定时器变更.xlsx
+++ b/VersionRecords/Version 5.0.0/定时器/定时器变更.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\doc\VersionRecords\Version 5.0.0\定时器\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12990" tabRatio="185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12990" tabRatio="185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$1:$5</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>定时器大类</t>
   </si>
@@ -138,6 +143,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">MsgBillHintByOrderTask
@@ -148,6 +154,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(mogoda-tasktracker)</t>
@@ -160,22 +167,7 @@
     <t>未上线</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>（新增）账单提醒，推送消息 租客&amp;房东&amp;房东子账号</t>
-  </si>
-  <si>
-    <t>MsgBillHintByOrderTask</t>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.CollectUserBehaviorRecordTask</t>
-  </si>
-  <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgBillHintByOrderTask"}</t>
-  </si>
-  <si>
-    <t>bill</t>
   </si>
   <si>
     <t>ProcessAcctHistoryDataTask
@@ -228,18 +220,134 @@
   <si>
     <t>只执行一次、用于新账务改造上线后的数据初始化</t>
   </si>
+  <si>
+    <t>未上线</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>未上线</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>（新增）账单提醒，推送消息 租客&amp;房东&amp;房东子账号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单提醒--提前一天催租</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MsgBillHintWeChatByOrderTask
+(mogoda-tasktracker)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MsgBillHintWeChatByOrderTask</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MsgBillHintByOrderTask</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.MsgBillHintByOrderTask</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.MsgBillHintWeChatByOrderTask</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"taskImpl":"com.mogoroom.tasktracker.task.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MsgBillHintWeChatByOrderTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时周期任务</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日09:00:00执行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每日2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:00:00执行</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错原因：错误数据导致，根据报错日志，修复数据，重新执行一次即可</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>貔貅</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">条件1：非蘑菇宝房租账单
+条件2：租客微信号成功绑定租客账号
+条件3：未支付账单（未支付+部分支付） </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +360,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -259,6 +368,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -266,6 +376,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -273,154 +384,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,7 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,188 +430,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -696,382 +507,215 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1096,6 +740,14 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1356,15 +1008,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:R5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="3" customWidth="1"/>
@@ -1386,7 +1037,7 @@
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27.75" spans="1:18">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1417,237 +1068,290 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="45" customHeight="1" spans="1:18">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="45" customHeight="1" spans="1:18">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="45" customHeight="1" spans="1:18">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="O4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="347.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="46"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="D5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="E5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="F5" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="8" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>45</v>
+      <c r="R5" s="38" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="347" customHeight="1" spans="1:18">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="15" t="s">
+    <row r="6" spans="1:18" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="47"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="16" t="s">
+      <c r="J6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="8"/>
+      <c r="K6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="45" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:XFD5"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>